--- a/data/trans_orig/P5708-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P5708-Clase-trans_orig.xlsx
@@ -4131,7 +4131,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
@@ -9147,7 +9147,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
@@ -14163,7 +14163,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
@@ -19179,7 +19179,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
